--- a/src/test/resources/TestDriver/IFRS9_Stage3/ActivityData/ActivityData_D4_Custom.xlsx
+++ b/src/test/resources/TestDriver/IFRS9_Stage3/ActivityData/ActivityData_D4_Custom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\IFRS9_Stage3\ActivityData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C15B564-6D59-4DA3-A63D-737BA93B6EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{945822E1-BAF4-4DC4-8000-94736BE21261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,7 +523,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,7 +902,7 @@
         <v>45900</v>
       </c>
       <c r="G16">
-        <v>1700</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -925,7 +925,7 @@
         <v>45930</v>
       </c>
       <c r="G17">
-        <v>1700</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -948,7 +948,7 @@
         <v>45961</v>
       </c>
       <c r="G18">
-        <v>1700</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -971,7 +971,7 @@
         <v>45991</v>
       </c>
       <c r="G19">
-        <v>1700</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -994,7 +994,7 @@
         <v>46022</v>
       </c>
       <c r="G20">
-        <v>1700</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1017,7 +1017,7 @@
         <v>46053</v>
       </c>
       <c r="G21">
-        <v>1700</v>
+        <v>2000</v>
       </c>
     </row>
   </sheetData>
